--- a/translation.xlsx
+++ b/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t xml:space="preserve">Dictionary key</t>
   </si>
@@ -75,38 +75,55 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier sélectionné: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficheiro seleccionado: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">File selezionato: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">choose_promt_file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите файл промта:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the promt file:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccione el archivo promta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wählen Sie eine Promta-Datei aus:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Fichier sélectionné: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficheiro seleccionado: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">File selezionato: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">choose_promt_file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выберите файл промта:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the promt file:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleccione el archivo promta:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wählen Sie eine Promta-Datei aus:</t>
-  </si>
-  <si>
+      <t xml:space="preserve">Promt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ファイルを選択します。</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -114,6 +131,712 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez le fichier promta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecione o arquivo promt:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleziona il file promta:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">search_in_filesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найти в файловой системе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find in the file system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buscar en el sistema de archivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Dateisystem suchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルシステムで検索する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechercher dans le système de fichiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurar no sistema de ficheiros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trova nel file system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read_docks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Читать документацию на GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the documentation on GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lea la documentación en GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesen Sie die Dokumentation auf GitHub</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GitHub</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">のドキュメントを読む</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lire la documentation sur GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leia a documentação no GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leggi la documentazione su GitHub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai_answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ответ нейросети:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Network response:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuesta de la red neuronal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Antwort des neuronalen Netzwerks:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ニューラルネットワーク応答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Réponse du réseau neuronal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resposta da rede neural:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Risposta della rete neurale:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofr_settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настройки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Einstellungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réglages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sintonização</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regolazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofr_requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Запросы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anforderung</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ご要望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ご要望</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Attente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richiesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_path_notselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путь до файла не выбран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The file path is not selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se ha seleccionado la ruta de acceso al archivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein Dateipfad ausgewählt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルパスが選択されていません</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucun chemin d'accès au fichier n'est sélectionné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não foi seleccionado o caminho para o ficheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il percorso fino al file non è selezionato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_path_notxt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Файл должен быть формата txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The file must be in txt format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo debe ser de formato txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Datei muss im TXT-Format sein</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ファイルは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">形式である必要があります。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Le fichier doit être au format txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O arquivo deve ser do formato txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il file deve essere in formato txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask_select_ai_model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите нейросеть:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the neural network:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccione una red neuronal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wählen Sie ein neuronales Netzwerk aus:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ニューラルネットワークを選択します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez un réseau de neurones:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escolha uma rede neural:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleziona una rete neurale:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask_entry_api_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API-ключ:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API key:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clave API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API-Schlüssel:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">キー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Clé API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chave API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiave API:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask_select_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Язык интерфейса:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface language:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idioma de la interfaz:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprache der Schnittstelle:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">インターフェイス言語</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Langue de l'interface:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idioma da interface:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingua dell'interfaccia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask_entry_source_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исходный текст:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The original text:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto original:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelltext:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">元のテキスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Source:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código fonte:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testo originale:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask_entry_essay_text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Текст сочинения:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The text of the essay:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto del ensayo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Text des Essays:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">エッセイのテキスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte de l'essai:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto do ensaio:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testo del saggio:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn_ai_question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить сочинение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the essay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprobar el ensayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufsatz überprüfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小論文をチェックする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier la composition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar composição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controlla il saggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btn_save_settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранить настройки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar configuración</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellungen speichern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設定の保存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistrer les paramètres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravar as configurações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salva impostazioni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings_are_saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настройки были сохранены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The settings have been saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La configuración se ha guardado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Einstellungen wurden gespeichert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">設定が保存されました</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les paramètres ont été enregistrés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As configurações foram salvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le impostazioni sono state salvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_ai_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка ответа нейросети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in the neural network response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error de respuesta de red neuronal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwortfehler des neuronalen Netzwerks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ニューラルネットワーク応答のエラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur de réponse du réseau neuronal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro de Resposta da rede neural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore di risposta della rete neurale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_essay_noentry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Введите сочинение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the essay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduzca el ensayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geben Sie den Aufsatz ein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エッセイを入力してください</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrez un essai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digite o ensaio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserisci il saggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_ai_model_notselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИИ-модель не выбрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The AI model is not selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo AI no seleccionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein KI-Modell ausgewählt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">モデルが選択されていません</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle ai non sélectionné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modelo AI não selecionado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modello ai non selezionato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_promt_notfound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Промт файл не найден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The promt file was not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo promt no encontrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promt-Datei nicht gefunden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Promt</t>
     </r>
     <r>
@@ -122,8 +845,34 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">ファイルを選択します。</t>
-    </r>
+      <t xml:space="preserve">ファイルが見つかりませんでした</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichier promt introuvable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo promt não encontrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File PROMT non trovato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_apikey_file_notfound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API-ключ не найден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API key not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clave API no encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API-Schlüssel wurde nicht gefunden</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -131,591 +880,103 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">キーが見つかりません</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Clé API introuvable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chave de API não encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiave API non trovata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_translation_notfound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка: перевод не найден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: the translation was not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error: traducción no encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehler: Übersetzung wurde nicht gefunden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">エラー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">:</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez le fichier promta:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selecione o arquivo promt:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleziona il file promta:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">search_in_filesystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Найти в файловой системе</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find in the file system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buscar en el sistema de archivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Im Dateisystem suchen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルシステムで検索する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechercher dans le système de fichiers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurar no sistema de ficheiros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trova nel file system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_docks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Читать документацию на GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the documentation on GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lea la documentación en GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesen Sie die Dokumentation auf GitHub</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GitHub</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">のドキュメントを読む</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Lire la documentation sur GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leia a documentação no GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leggi la documentazione su GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ai_answer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответ нейросети:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural Network response:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Respuesta de la red neuronal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Antwort des neuronalen Netzwerks:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ニューラルネットワーク応答</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Réponse du réseau neuronal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resposta da rede neural:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Risposta della rete neurale:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ofr_settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настройки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajustes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Einstellungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réglages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sintonização</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regolazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ofr_requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Запросы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demandas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anforderung</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ご要望</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ご要望</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Attente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">err_path_noselect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Путь до файла не выбран</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The file path is not selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se ha seleccionado la ruta de acceso al archivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kein Dateipfad ausgewählt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルパスが選択されていません</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucun chemin d'accès au fichier n'est sélectionné</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não foi seleccionado o caminho para o ficheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il percorso fino al file non è selezionato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">err_path_notxt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Файл должен быть формата txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The file must be in txt format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El archivo debe ser de formato txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Datei muss im TXT-Format sein</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ファイルは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">txt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">形式である必要があります。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Le fichier doit être au format txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O arquivo deve ser do formato txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il file deve essere in formato txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask_select_ai_model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выберите нейросеть:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select the neural network:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleccione una red neuronal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wählen Sie ein neuronales Netzwerk aus:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ニューラルネットワークを選択します</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionnez un réseau de neurones:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escolha uma rede neural:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleziona una rete neurale:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask_entry_api_key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API-ключ:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API key:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clave API:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">API-Schlüssel:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">キー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Clé API:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chave API:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiave API:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask_select_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Язык интерфейса:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface language:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idioma de la interfaz:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprache der Schnittstelle:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">インターフェイス言語</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Langue de l'interface:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idioma da interface:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lingua dell'interfaccia:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask_entry_source_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исходный текст:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The original text:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto original:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quelltext:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">元のテキスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Source:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código fonte:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testo originale:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ask_entry_essay_text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текст вашего сочинения:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The text of your essay:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El texto de su ensayo:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Text Ihres Aufsatzes:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">あなたのエッセイのテキスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">:</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Texte de votre essai:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texto da sua redação:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il testo del tuo saggio:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn_ai_question</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проверить сочинение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the essay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comprobar el ensayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufsatz überprüfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小論文をチェックする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier la composition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar composição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controlla il saggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">btn_save_settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сохранить настройки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save Settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar configuración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einstellungen speichern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定の保存</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enregistrer les paramètres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravar as configurações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salva impostazioni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settings_are_saved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настройки были сохранены</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The settings have been saved</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La configuración se ha guardado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Einstellungen wurden gespeichert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">設定が保存されました</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les paramètres ont été enregistrés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As configurações foram salvas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le impostazioni sono state salvate</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">翻訳が見つかりませんでした</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur: traduction introuvable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro: tradução não encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore: traduzione non trovata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_ai_currently_notsupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбранный ИИ сейчас не поддерживается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The selected one is still not supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccionado y ahora no es compatible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausgewählt Und wird derzeit nicht unterstützt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">選択したものはまだサポートされていません</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionné Et maintenant non pris en charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecionado e atualmente não suportado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selezionato e ora non supportato</t>
   </si>
 </sst>
 </file>
@@ -725,7 +986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -751,6 +1012,12 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -931,10 +1198,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1472,6 +1739,209 @@
         <v>161</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="261">
   <si>
     <t xml:space="preserve">Dictionary key</t>
   </si>
@@ -927,56 +927,204 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">翻訳が見つかりませんでした</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Erreur: traduction introuvable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erro: tradução não encontrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore: traduzione non trovata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_ai_currently_notsupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выбранный ИИ сейчас не поддерживается</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The selected AI is currently not supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La IA seleccionada no es compatible ahora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die ausgewählte KI wird derzeit nicht unterstützt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">選択した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">は現在サポートされていません</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">L'IA sélectionnée n'est pas prise en charge pour le moment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O AI selecionado não é suportado no momento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'IA selezionata non è attualmente supportata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait_ai_response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ожидайте ответа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expect a response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espere una respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warte auf eine Antwort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">応答を期待する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attendez une réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguarde uma resposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspettatevi una risposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">err_format_notfound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формат отображения не найден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The display format was not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato de visualización no encontrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Anzeigeformat wurde nicht gefunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表示形式が見つかりませんでした</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format d'affichage introuvable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato de exibição não encontrado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato di visualizzazione non trovato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ask_select_format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выберите формат отображения:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select the display format:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccione el formato de visualización:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wählen Sie das Anzeigeformat aus:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">表示形式を選択します</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">:</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">翻訳が見つかりませんでした</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Erreur: traduction introuvable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erro: tradução não encontrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore: traduzione non trovata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">err_ai_currently_notsupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выбранный ИИ сейчас не поддерживается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The selected one is still not supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seleccionado y ahora no es compatible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausgewählt Und wird derzeit nicht unterstützt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">選択したものはまだサポートされていません</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sélectionné Et maintenant non pris en charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selecionado e atualmente não suportado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selezionato e ora non supportato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sélectionnez le format d'affichage:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escolha o formato de exibição:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scegli il formato di visualizzazione:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_to_clipboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сохранить ответ в буфер обмена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save the response to the clipboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar la respuesta en el portapapeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antwort in die Zwischenablage speichern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">応答をクリップボードに保存します</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistrer la réponse dans le presse-papiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravar a resposta para a área de transferência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salva la risposta negli appunti</t>
   </si>
 </sst>
 </file>
@@ -1062,12 +1210,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1198,10 +1350,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1256,13 +1408,13 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1320,7 +1472,7 @@
       <c r="E4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1378,7 +1530,7 @@
       <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1407,7 +1559,7 @@
       <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1436,7 +1588,7 @@
       <c r="E8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1465,7 +1617,7 @@
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1494,7 +1646,7 @@
       <c r="E10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1523,7 +1675,7 @@
       <c r="E11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1581,7 +1733,7 @@
       <c r="E13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1610,7 +1762,7 @@
       <c r="E14" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1639,7 +1791,7 @@
       <c r="E15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1668,7 +1820,7 @@
       <c r="E16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1697,7 +1849,7 @@
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>149</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1726,7 +1878,7 @@
       <c r="E18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>158</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1755,7 +1907,7 @@
       <c r="E19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1784,7 +1936,7 @@
       <c r="E20" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>176</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1900,7 +2052,7 @@
       <c r="E24" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -1929,7 +2081,7 @@
       <c r="E25" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>221</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -1940,6 +2092,122 @@
       </c>
       <c r="I25" s="1" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/translation.xlsx
+++ b/translation.xlsx
@@ -1006,7 +1006,7 @@
     <t xml:space="preserve">wait_ai_response</t>
   </si>
   <si>
-    <t xml:space="preserve">Ожидайте ответа</t>
+    <t xml:space="preserve">Ожидайте ответ</t>
   </si>
   <si>
     <t xml:space="preserve">Expect a response</t>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
